--- a/results/JayaFeaturesTrainPrepared/Sheet1/ROC_data/NaiveBayes_averaged_roc_data_1_features.xlsx
+++ b/results/JayaFeaturesTrainPrepared/Sheet1/ROC_data/NaiveBayes_averaged_roc_data_1_features.xlsx
@@ -396,7 +396,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2127272727272727</v>
+        <v>0.1727272727272728</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -404,7 +404,7 @@
         <v>0.0101010101010101</v>
       </c>
       <c r="B3">
-        <v>0.2127272727272727</v>
+        <v>0.1727272727272728</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -412,7 +412,7 @@
         <v>0.0202020202020202</v>
       </c>
       <c r="B4">
-        <v>0.2127272727272727</v>
+        <v>0.1727272727272728</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -420,7 +420,7 @@
         <v>0.0303030303030303</v>
       </c>
       <c r="B5">
-        <v>0.2127272727272727</v>
+        <v>0.1727272727272728</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -428,7 +428,7 @@
         <v>0.04040404040404041</v>
       </c>
       <c r="B6">
-        <v>0.2127272727272727</v>
+        <v>0.1727272727272728</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -436,7 +436,7 @@
         <v>0.05050505050505051</v>
       </c>
       <c r="B7">
-        <v>0.2127272727272727</v>
+        <v>0.1727272727272728</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -532,7 +532,7 @@
         <v>0.1717171717171717</v>
       </c>
       <c r="B19">
-        <v>0.4036363636363636</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -540,7 +540,7 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="B20">
-        <v>0.4036363636363636</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -548,7 +548,7 @@
         <v>0.1919191919191919</v>
       </c>
       <c r="B21">
-        <v>0.4036363636363636</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -556,7 +556,7 @@
         <v>0.202020202020202</v>
       </c>
       <c r="B22">
-        <v>0.4036363636363636</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -564,7 +564,7 @@
         <v>0.2121212121212121</v>
       </c>
       <c r="B23">
-        <v>0.4036363636363636</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -572,7 +572,7 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="B24">
-        <v>0.4436363636363637</v>
+        <v>0.4236363636363636</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -580,7 +580,7 @@
         <v>0.2323232323232323</v>
       </c>
       <c r="B25">
-        <v>0.4436363636363637</v>
+        <v>0.4236363636363636</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -588,7 +588,7 @@
         <v>0.2424242424242424</v>
       </c>
       <c r="B26">
-        <v>0.4436363636363637</v>
+        <v>0.4236363636363636</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -596,7 +596,7 @@
         <v>0.2525252525252525</v>
       </c>
       <c r="B27">
-        <v>0.4436363636363637</v>
+        <v>0.4236363636363636</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -604,7 +604,7 @@
         <v>0.2626262626262627</v>
       </c>
       <c r="B28">
-        <v>0.4436363636363637</v>
+        <v>0.4236363636363636</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -612,7 +612,7 @@
         <v>0.2727272727272728</v>
       </c>
       <c r="B29">
-        <v>0.4436363636363637</v>
+        <v>0.4236363636363636</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -620,7 +620,7 @@
         <v>0.2828282828282829</v>
       </c>
       <c r="B30">
-        <v>0.4636363636363637</v>
+        <v>0.4436363636363637</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -628,7 +628,7 @@
         <v>0.2929292929292929</v>
       </c>
       <c r="B31">
-        <v>0.4636363636363637</v>
+        <v>0.4436363636363637</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -636,7 +636,7 @@
         <v>0.303030303030303</v>
       </c>
       <c r="B32">
-        <v>0.5545454545454545</v>
+        <v>0.5345454545454545</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -644,7 +644,7 @@
         <v>0.3131313131313131</v>
       </c>
       <c r="B33">
-        <v>0.5545454545454545</v>
+        <v>0.5345454545454545</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -652,7 +652,7 @@
         <v>0.3232323232323233</v>
       </c>
       <c r="B34">
-        <v>0.5545454545454545</v>
+        <v>0.5345454545454545</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -660,7 +660,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="B35">
-        <v>0.5945454545454545</v>
+        <v>0.5745454545454545</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -668,7 +668,7 @@
         <v>0.3434343434343435</v>
       </c>
       <c r="B36">
-        <v>0.5945454545454545</v>
+        <v>0.5745454545454545</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -676,7 +676,7 @@
         <v>0.3535353535353536</v>
       </c>
       <c r="B37">
-        <v>0.630909090909091</v>
+        <v>0.610909090909091</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -684,7 +684,7 @@
         <v>0.3636363636363636</v>
       </c>
       <c r="B38">
-        <v>0.630909090909091</v>
+        <v>0.610909090909091</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>0.3737373737373738</v>
       </c>
       <c r="B39">
-        <v>0.630909090909091</v>
+        <v>0.610909090909091</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>0.3838383838383839</v>
       </c>
       <c r="B40">
-        <v>0.630909090909091</v>
+        <v>0.610909090909091</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>0.393939393939394</v>
       </c>
       <c r="B41">
-        <v>0.650909090909091</v>
+        <v>0.610909090909091</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>0.4040404040404041</v>
       </c>
       <c r="B42">
-        <v>0.650909090909091</v>
+        <v>0.610909090909091</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>0.4141414141414142</v>
       </c>
       <c r="B43">
-        <v>0.6690909090909092</v>
+        <v>0.6290909090909091</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>0.4242424242424243</v>
       </c>
       <c r="B44">
-        <v>0.6690909090909092</v>
+        <v>0.6290909090909091</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>0.4343434343434344</v>
       </c>
       <c r="B45">
-        <v>0.6690909090909092</v>
+        <v>0.6290909090909091</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="B46">
-        <v>0.6690909090909092</v>
+        <v>0.6490909090909092</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>0.4545454545454546</v>
       </c>
       <c r="B47">
-        <v>0.6690909090909092</v>
+        <v>0.6490909090909092</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>0.4646464646464647</v>
       </c>
       <c r="B48">
-        <v>0.6690909090909092</v>
+        <v>0.6490909090909092</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>0.4747474747474748</v>
       </c>
       <c r="B49">
-        <v>0.6872727272727273</v>
+        <v>0.6672727272727272</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>0.4848484848484849</v>
       </c>
       <c r="B50">
-        <v>0.6872727272727273</v>
+        <v>0.6672727272727272</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>0.494949494949495</v>
       </c>
       <c r="B51">
-        <v>0.6872727272727273</v>
+        <v>0.6672727272727272</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>0.5050505050505051</v>
       </c>
       <c r="B52">
-        <v>0.7272727272727273</v>
+        <v>0.7072727272727273</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>0.5151515151515152</v>
       </c>
       <c r="B53">
-        <v>0.7272727272727273</v>
+        <v>0.7072727272727273</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>0.5252525252525253</v>
       </c>
       <c r="B54">
-        <v>0.7272727272727273</v>
+        <v>0.7072727272727273</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>0.5353535353535354</v>
       </c>
       <c r="B55">
-        <v>0.7272727272727273</v>
+        <v>0.7072727272727273</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>0.5454545454545455</v>
       </c>
       <c r="B56">
-        <v>0.7272727272727273</v>
+        <v>0.7072727272727273</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="B57">
-        <v>0.8272727272727274</v>
+        <v>0.7672727272727273</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>0.5656565656565657</v>
       </c>
       <c r="B58">
-        <v>0.8272727272727274</v>
+        <v>0.7672727272727273</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>0.5757575757575758</v>
       </c>
       <c r="B59">
-        <v>0.8272727272727274</v>
+        <v>0.7672727272727273</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>0.5858585858585859</v>
       </c>
       <c r="B60">
-        <v>0.8272727272727274</v>
+        <v>0.7672727272727273</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>0.595959595959596</v>
       </c>
       <c r="B61">
-        <v>0.8454545454545455</v>
+        <v>0.7854545454545455</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>0.6060606060606061</v>
       </c>
       <c r="B62">
-        <v>0.8454545454545455</v>
+        <v>0.7854545454545455</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -884,7 +884,7 @@
         <v>0.6161616161616162</v>
       </c>
       <c r="B63">
-        <v>0.8454545454545455</v>
+        <v>0.8054545454545454</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>0.6262626262626263</v>
       </c>
       <c r="B64">
-        <v>0.8454545454545455</v>
+        <v>0.8054545454545454</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>0.6363636363636365</v>
       </c>
       <c r="B65">
-        <v>0.8454545454545455</v>
+        <v>0.8054545454545454</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>0.6464646464646465</v>
       </c>
       <c r="B66">
-        <v>0.8454545454545455</v>
+        <v>0.8054545454545454</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>0.6565656565656566</v>
       </c>
       <c r="B67">
-        <v>0.8454545454545455</v>
+        <v>0.8054545454545454</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="B68">
-        <v>0.8454545454545455</v>
+        <v>0.8254545454545454</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>0.6767676767676768</v>
       </c>
       <c r="B69">
-        <v>0.8454545454545455</v>
+        <v>0.8254545454545454</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>0.686868686868687</v>
       </c>
       <c r="B70">
-        <v>0.8454545454545455</v>
+        <v>0.8254545454545454</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>0.696969696969697</v>
       </c>
       <c r="B71">
-        <v>0.8454545454545455</v>
+        <v>0.8254545454545454</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>0.7070707070707072</v>
       </c>
       <c r="B72">
-        <v>0.8454545454545455</v>
+        <v>0.8254545454545454</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>0.7171717171717172</v>
       </c>
       <c r="B73">
-        <v>0.8454545454545455</v>
+        <v>0.8254545454545454</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>0.7272727272727273</v>
       </c>
       <c r="B74">
-        <v>0.8654545454545455</v>
+        <v>0.8254545454545454</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>0.7373737373737375</v>
       </c>
       <c r="B75">
-        <v>0.8654545454545455</v>
+        <v>0.8254545454545454</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>0.7474747474747475</v>
       </c>
       <c r="B76">
-        <v>0.8654545454545455</v>
+        <v>0.8254545454545454</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>0.7575757575757577</v>
       </c>
       <c r="B77">
-        <v>0.8654545454545455</v>
+        <v>0.8254545454545454</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>0.7676767676767677</v>
       </c>
       <c r="B78">
-        <v>0.8654545454545455</v>
+        <v>0.8254545454545454</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>0.7777777777777778</v>
       </c>
       <c r="B79">
-        <v>0.8854545454545455</v>
+        <v>0.8254545454545454</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>0.787878787878788</v>
       </c>
       <c r="B80">
-        <v>0.8854545454545455</v>
+        <v>0.8254545454545454</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>0.797979797979798</v>
       </c>
       <c r="B81">
-        <v>0.8854545454545455</v>
+        <v>0.8254545454545454</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>0.8080808080808082</v>
       </c>
       <c r="B82">
-        <v>0.8854545454545455</v>
+        <v>0.8254545454545454</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>0.8181818181818182</v>
       </c>
       <c r="B83">
-        <v>0.8854545454545455</v>
+        <v>0.8254545454545454</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>0.8282828282828284</v>
       </c>
       <c r="B84">
-        <v>0.8854545454545455</v>
+        <v>0.8254545454545454</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>0.8383838383838385</v>
       </c>
       <c r="B85">
-        <v>0.9254545454545454</v>
+        <v>0.8654545454545455</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>0.8484848484848485</v>
       </c>
       <c r="B86">
-        <v>0.9254545454545454</v>
+        <v>0.8654545454545455</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>0.8585858585858587</v>
       </c>
       <c r="B87">
-        <v>0.9254545454545454</v>
+        <v>0.8654545454545455</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>0.8686868686868687</v>
       </c>
       <c r="B88">
-        <v>0.9254545454545454</v>
+        <v>0.8654545454545455</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>0.8787878787878789</v>
       </c>
       <c r="B89">
-        <v>0.9254545454545454</v>
+        <v>0.8654545454545455</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>0.888888888888889</v>
       </c>
       <c r="B90">
-        <v>0.9636363636363636</v>
+        <v>0.9236363636363636</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>0.8989898989898991</v>
       </c>
       <c r="B91">
-        <v>0.9636363636363636</v>
+        <v>0.9236363636363636</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>0.9090909090909092</v>
       </c>
       <c r="B92">
-        <v>0.9636363636363636</v>
+        <v>0.9236363636363636</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>0.9191919191919192</v>
       </c>
       <c r="B93">
-        <v>0.9636363636363636</v>
+        <v>0.9236363636363636</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>0.9292929292929294</v>
       </c>
       <c r="B94">
-        <v>0.9636363636363636</v>
+        <v>0.9236363636363636</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>0.9393939393939394</v>
       </c>
       <c r="B95">
-        <v>0.9636363636363636</v>
+        <v>0.9236363636363636</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>0.9494949494949496</v>
       </c>
       <c r="B96">
-        <v>0.9818181818181818</v>
+        <v>0.9418181818181818</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>0.9595959595959597</v>
       </c>
       <c r="B97">
-        <v>0.9818181818181818</v>
+        <v>0.9418181818181818</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>0.9696969696969697</v>
       </c>
       <c r="B98">
-        <v>0.9818181818181818</v>
+        <v>0.9418181818181818</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>0.9797979797979799</v>
       </c>
       <c r="B99">
-        <v>0.9818181818181818</v>
+        <v>0.9418181818181818</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>0.9898989898989899</v>
       </c>
       <c r="B100">
-        <v>0.9818181818181818</v>
+        <v>0.9418181818181818</v>
       </c>
     </row>
     <row r="101" spans="1:2">

--- a/results/JayaFeaturesTrainPrepared/Sheet1/ROC_data/NaiveBayes_averaged_roc_data_1_features.xlsx
+++ b/results/JayaFeaturesTrainPrepared/Sheet1/ROC_data/NaiveBayes_averaged_roc_data_1_features.xlsx
@@ -396,7 +396,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1727272727272728</v>
+        <v>0.2127272727272727</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -404,7 +404,7 @@
         <v>0.0101010101010101</v>
       </c>
       <c r="B3">
-        <v>0.1727272727272728</v>
+        <v>0.2127272727272727</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -412,7 +412,7 @@
         <v>0.0202020202020202</v>
       </c>
       <c r="B4">
-        <v>0.1727272727272728</v>
+        <v>0.2127272727272727</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -420,7 +420,7 @@
         <v>0.0303030303030303</v>
       </c>
       <c r="B5">
-        <v>0.1727272727272728</v>
+        <v>0.2127272727272727</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -428,7 +428,7 @@
         <v>0.04040404040404041</v>
       </c>
       <c r="B6">
-        <v>0.1727272727272728</v>
+        <v>0.2127272727272727</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -436,7 +436,7 @@
         <v>0.05050505050505051</v>
       </c>
       <c r="B7">
-        <v>0.1727272727272728</v>
+        <v>0.2127272727272727</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -532,7 +532,7 @@
         <v>0.1717171717171717</v>
       </c>
       <c r="B19">
-        <v>0.3636363636363636</v>
+        <v>0.3436363636363636</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -540,7 +540,7 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="B20">
-        <v>0.3636363636363636</v>
+        <v>0.3436363636363636</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -548,7 +548,7 @@
         <v>0.1919191919191919</v>
       </c>
       <c r="B21">
-        <v>0.3636363636363636</v>
+        <v>0.3436363636363636</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -556,7 +556,7 @@
         <v>0.202020202020202</v>
       </c>
       <c r="B22">
-        <v>0.3636363636363636</v>
+        <v>0.3436363636363636</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -564,7 +564,7 @@
         <v>0.2121212121212121</v>
       </c>
       <c r="B23">
-        <v>0.3636363636363636</v>
+        <v>0.3436363636363636</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -572,7 +572,7 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="B24">
-        <v>0.4236363636363636</v>
+        <v>0.4436363636363637</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -580,7 +580,7 @@
         <v>0.2323232323232323</v>
       </c>
       <c r="B25">
-        <v>0.4236363636363636</v>
+        <v>0.4436363636363637</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -588,7 +588,7 @@
         <v>0.2424242424242424</v>
       </c>
       <c r="B26">
-        <v>0.4236363636363636</v>
+        <v>0.4436363636363637</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -596,7 +596,7 @@
         <v>0.2525252525252525</v>
       </c>
       <c r="B27">
-        <v>0.4236363636363636</v>
+        <v>0.4436363636363637</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -604,7 +604,7 @@
         <v>0.2626262626262627</v>
       </c>
       <c r="B28">
-        <v>0.4236363636363636</v>
+        <v>0.4436363636363637</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -612,7 +612,7 @@
         <v>0.2727272727272728</v>
       </c>
       <c r="B29">
-        <v>0.4236363636363636</v>
+        <v>0.4436363636363637</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -636,7 +636,7 @@
         <v>0.303030303030303</v>
       </c>
       <c r="B32">
-        <v>0.5345454545454545</v>
+        <v>0.5345454545454544</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -644,7 +644,7 @@
         <v>0.3131313131313131</v>
       </c>
       <c r="B33">
-        <v>0.5345454545454545</v>
+        <v>0.5345454545454544</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -652,7 +652,7 @@
         <v>0.3232323232323233</v>
       </c>
       <c r="B34">
-        <v>0.5345454545454545</v>
+        <v>0.5345454545454544</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -660,7 +660,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="B35">
-        <v>0.5745454545454545</v>
+        <v>0.5545454545454545</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -668,7 +668,7 @@
         <v>0.3434343434343435</v>
       </c>
       <c r="B36">
-        <v>0.5745454545454545</v>
+        <v>0.5545454545454545</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -676,7 +676,7 @@
         <v>0.3535353535353536</v>
       </c>
       <c r="B37">
-        <v>0.610909090909091</v>
+        <v>0.5909090909090909</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -684,7 +684,7 @@
         <v>0.3636363636363636</v>
       </c>
       <c r="B38">
-        <v>0.610909090909091</v>
+        <v>0.5909090909090909</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>0.3737373737373738</v>
       </c>
       <c r="B39">
-        <v>0.610909090909091</v>
+        <v>0.5909090909090909</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>0.3838383838383839</v>
       </c>
       <c r="B40">
-        <v>0.610909090909091</v>
+        <v>0.5909090909090909</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>0.393939393939394</v>
       </c>
       <c r="B41">
-        <v>0.610909090909091</v>
+        <v>0.630909090909091</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>0.4040404040404041</v>
       </c>
       <c r="B42">
-        <v>0.610909090909091</v>
+        <v>0.630909090909091</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>0.4141414141414142</v>
       </c>
       <c r="B43">
-        <v>0.6290909090909091</v>
+        <v>0.6490909090909092</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>0.4242424242424243</v>
       </c>
       <c r="B44">
-        <v>0.6290909090909091</v>
+        <v>0.6490909090909092</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>0.4343434343434344</v>
       </c>
       <c r="B45">
-        <v>0.6290909090909091</v>
+        <v>0.6490909090909092</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="B46">
-        <v>0.6490909090909092</v>
+        <v>0.6690909090909092</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>0.4545454545454546</v>
       </c>
       <c r="B47">
-        <v>0.6490909090909092</v>
+        <v>0.6690909090909092</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>0.4646464646464647</v>
       </c>
       <c r="B48">
-        <v>0.6490909090909092</v>
+        <v>0.6690909090909092</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>0.4747474747474748</v>
       </c>
       <c r="B49">
-        <v>0.6672727272727272</v>
+        <v>0.6872727272727273</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>0.4848484848484849</v>
       </c>
       <c r="B50">
-        <v>0.6672727272727272</v>
+        <v>0.6872727272727273</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>0.494949494949495</v>
       </c>
       <c r="B51">
-        <v>0.6672727272727272</v>
+        <v>0.6872727272727273</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>0.5050505050505051</v>
       </c>
       <c r="B52">
-        <v>0.7072727272727273</v>
+        <v>0.7272727272727273</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>0.5151515151515152</v>
       </c>
       <c r="B53">
-        <v>0.7072727272727273</v>
+        <v>0.7272727272727273</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>0.5252525252525253</v>
       </c>
       <c r="B54">
-        <v>0.7072727272727273</v>
+        <v>0.7272727272727273</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>0.5353535353535354</v>
       </c>
       <c r="B55">
-        <v>0.7072727272727273</v>
+        <v>0.7272727272727273</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>0.5454545454545455</v>
       </c>
       <c r="B56">
-        <v>0.7072727272727273</v>
+        <v>0.7272727272727273</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -884,7 +884,7 @@
         <v>0.6161616161616162</v>
       </c>
       <c r="B63">
-        <v>0.8054545454545454</v>
+        <v>0.7854545454545455</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>0.6262626262626263</v>
       </c>
       <c r="B64">
-        <v>0.8054545454545454</v>
+        <v>0.7854545454545455</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>0.6363636363636365</v>
       </c>
       <c r="B65">
-        <v>0.8054545454545454</v>
+        <v>0.7854545454545455</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>0.6464646464646465</v>
       </c>
       <c r="B66">
-        <v>0.8054545454545454</v>
+        <v>0.7854545454545455</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>0.6565656565656566</v>
       </c>
       <c r="B67">
-        <v>0.8054545454545454</v>
+        <v>0.8036363636363637</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="B68">
-        <v>0.8254545454545454</v>
+        <v>0.8036363636363637</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>0.6767676767676768</v>
       </c>
       <c r="B69">
-        <v>0.8254545454545454</v>
+        <v>0.8036363636363637</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>0.686868686868687</v>
       </c>
       <c r="B70">
-        <v>0.8254545454545454</v>
+        <v>0.8036363636363637</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>0.696969696969697</v>
       </c>
       <c r="B71">
-        <v>0.8254545454545454</v>
+        <v>0.8036363636363637</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>0.7070707070707072</v>
       </c>
       <c r="B72">
-        <v>0.8254545454545454</v>
+        <v>0.8218181818181819</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>0.7171717171717172</v>
       </c>
       <c r="B73">
-        <v>0.8254545454545454</v>
+        <v>0.8218181818181819</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>0.7272727272727273</v>
       </c>
       <c r="B74">
-        <v>0.8254545454545454</v>
+        <v>0.8218181818181819</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>0.7373737373737375</v>
       </c>
       <c r="B75">
-        <v>0.8254545454545454</v>
+        <v>0.8218181818181819</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>0.7474747474747475</v>
       </c>
       <c r="B76">
-        <v>0.8254545454545454</v>
+        <v>0.8218181818181819</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>0.7575757575757577</v>
       </c>
       <c r="B77">
-        <v>0.8254545454545454</v>
+        <v>0.8218181818181819</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>0.7676767676767677</v>
       </c>
       <c r="B78">
-        <v>0.8254545454545454</v>
+        <v>0.8218181818181819</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>0.7777777777777778</v>
       </c>
       <c r="B79">
-        <v>0.8254545454545454</v>
+        <v>0.8418181818181818</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>0.787878787878788</v>
       </c>
       <c r="B80">
-        <v>0.8254545454545454</v>
+        <v>0.8418181818181818</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>0.797979797979798</v>
       </c>
       <c r="B81">
-        <v>0.8254545454545454</v>
+        <v>0.8418181818181818</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>0.8080808080808082</v>
       </c>
       <c r="B82">
-        <v>0.8254545454545454</v>
+        <v>0.8418181818181818</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>0.8181818181818182</v>
       </c>
       <c r="B83">
-        <v>0.8254545454545454</v>
+        <v>0.8418181818181818</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>0.8282828282828284</v>
       </c>
       <c r="B84">
-        <v>0.8254545454545454</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>0.8383838383838385</v>
       </c>
       <c r="B85">
-        <v>0.8654545454545455</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>0.8484848484848485</v>
       </c>
       <c r="B86">
-        <v>0.8654545454545455</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>0.8585858585858587</v>
       </c>
       <c r="B87">
-        <v>0.8654545454545455</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>0.8686868686868687</v>
       </c>
       <c r="B88">
-        <v>0.8654545454545455</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>0.8787878787878789</v>
       </c>
       <c r="B89">
-        <v>0.8654545454545455</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>0.888888888888889</v>
       </c>
       <c r="B90">
-        <v>0.9236363636363636</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>0.8989898989898991</v>
       </c>
       <c r="B91">
-        <v>0.9236363636363636</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>0.9090909090909092</v>
       </c>
       <c r="B92">
-        <v>0.9236363636363636</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>0.9191919191919192</v>
       </c>
       <c r="B93">
-        <v>0.9236363636363636</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>0.9292929292929294</v>
       </c>
       <c r="B94">
-        <v>0.9236363636363636</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>0.9393939393939394</v>
       </c>
       <c r="B95">
-        <v>0.9236363636363636</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>0.9494949494949496</v>
       </c>
       <c r="B96">
-        <v>0.9418181818181818</v>
+        <v>0.9800000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>0.9595959595959597</v>
       </c>
       <c r="B97">
-        <v>0.9418181818181818</v>
+        <v>0.9800000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>0.9696969696969697</v>
       </c>
       <c r="B98">
-        <v>0.9418181818181818</v>
+        <v>0.9800000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>0.9797979797979799</v>
       </c>
       <c r="B99">
-        <v>0.9418181818181818</v>
+        <v>0.9800000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>0.9898989898989899</v>
       </c>
       <c r="B100">
-        <v>0.9418181818181818</v>
+        <v>0.9800000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:2">
